--- a/public/app-assets/ImportSamples/5-UnitsSample.xlsx
+++ b/public/app-assets/ImportSamples/5-UnitsSample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>floor_short_label *</t>
   </si>
@@ -76,7 +76,7 @@
     <t>open</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>null</t>
   </si>
   <si>
     <t>yes</t>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>unit 7</t>
@@ -147,16 +144,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,13 +175,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -196,7 +186,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -207,23 +204,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -231,113 +228,63 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -345,15 +292,65 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -391,37 +388,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,145 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,17 +591,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,21 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -674,179 +665,190 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,56 +911,116 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1105,36 +1167,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:O20"/>
+  <sheetPr/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="30.125" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="11.125" customWidth="1"/>
-    <col min="15" max="15" width="32.25" customWidth="1"/>
-    <col min="16" max="26" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="17.2" customWidth="1"/>
+    <col min="2" max="2" width="7.3" customWidth="1"/>
+    <col min="3" max="3" width="6.1" customWidth="1"/>
+    <col min="4" max="4" width="6.8" customWidth="1"/>
+    <col min="5" max="5" width="16.7" customWidth="1"/>
+    <col min="6" max="6" width="8.6" customWidth="1"/>
+    <col min="7" max="7" width="11.9" customWidth="1"/>
+    <col min="8" max="8" width="11.1" customWidth="1"/>
+    <col min="9" max="9" width="10.3" customWidth="1"/>
+    <col min="10" max="10" width="18.9" customWidth="1"/>
+    <col min="11" max="11" width="9.9" customWidth="1"/>
+    <col min="12" max="12" width="23.7" customWidth="1"/>
+    <col min="13" max="13" width="8.9" customWidth="1"/>
+    <col min="14" max="14" width="8.8" customWidth="1"/>
+    <col min="15" max="15" width="25.3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1206,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1162,13 +1221,13 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1177,11 +1236,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1268,7 @@
       <c r="I2" s="3">
         <v>10000</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1224,11 +1283,11 @@
       <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:15">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1315,7 @@
       <c r="I3" s="3">
         <v>510000</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1271,16 +1330,14 @@
       <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="O3" s="10"/>
     </row>
-    <row r="4" customHeight="1" spans="1:15">
+    <row r="4" ht="16.5" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>11</v>
@@ -1289,7 +1346,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>900</v>
@@ -1303,11 +1360,11 @@
       <c r="I4" s="3">
         <v>1010000</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>28</v>
@@ -1319,15 +1376,15 @@
         <v>21</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:15">
+    <row r="5" ht="16.5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3">
         <v>12</v>
@@ -1336,7 +1393,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3">
         <v>1300</v>
@@ -1350,11 +1407,11 @@
       <c r="I5" s="3">
         <v>1510000</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>20</v>
@@ -1366,12 +1423,12 @@
         <v>21</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1383,7 +1440,7 @@
         <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3">
         <v>1700</v>
@@ -1401,7 +1458,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>20</v>
@@ -1412,17 +1469,7 @@
       <c r="N6" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="O6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/app-assets/ImportSamples/5-UnitsSample.xlsx
+++ b/public/app-assets/ImportSamples/5-UnitsSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11520"/>
+    <workbookView windowWidth="28800" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>unit 1</t>
   </si>
   <si>
-    <t>GF-01</t>
+    <t>GF-12</t>
   </si>
   <si>
     <t>shops</t>
@@ -85,25 +85,25 @@
     <t>margla-view-facings</t>
   </si>
   <si>
+    <t>unit 4</t>
+  </si>
+  <si>
+    <t>GF-13</t>
+  </si>
+  <si>
+    <t>hotels-suits</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>1F-02</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>1F</t>
-  </si>
-  <si>
-    <t>unit 4</t>
-  </si>
-  <si>
-    <t>1F-04</t>
-  </si>
-  <si>
-    <t>hotel-suits</t>
-  </si>
-  <si>
-    <t>sold</t>
-  </si>
-  <si>
-    <t>1F-02</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>unit 7</t>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -212,16 +212,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,49 +264,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,58 +327,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,187 +388,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,15 +579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,7 +601,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +636,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -659,23 +665,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,142 +684,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -1301,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3">
         <v>500</v>
@@ -1316,25 +1316,25 @@
         <v>510000</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="10"/>
     </row>
     <row r="4" ht="16.5" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
@@ -1361,16 +1361,16 @@
         <v>1010000</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>21</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -1417,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>21</v>
@@ -1464,10 +1464,10 @@
         <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="12"/>
     </row>
